--- a/public/DB.xlsx
+++ b/public/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\leobook\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\xampp\htdocs\leobook\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="issuer" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,14 +591,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -635,9 +627,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -921,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,11 +1252,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>147</v>
       </c>
       <c r="D18" t="s">
@@ -1556,7 +1545,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
